--- a/keywords/keywords.xlsx
+++ b/keywords/keywords.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\keywords\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9605BE-33D4-4365-A905-5160C11E98E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="登录"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>传参</t>
   </si>
   <si>
+    <t>返回值</t>
+  </si>
+  <si>
+    <t>name=admin
+password=admin@123</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>接口</t>
   </si>
   <si>
@@ -34,46 +38,33 @@
     <t>提取</t>
   </si>
   <si>
-    <t>返回值</t>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>admin_login</t>
   </si>
   <si>
     <t>{"admin": "{{name}}", "password": "{{password}}"}</t>
-  </si>
-  <si>
-    <t>jsonpath::$.data</t>
-  </si>
-  <si>
-    <t>coo=admin_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name="admin"
-password="admin@123"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +75,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -96,32 +94,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -132,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -173,71 +180,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -265,7 +272,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -288,11 +295,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -301,13 +308,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -317,7 +324,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -326,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -335,7 +342,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,10 +350,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -411,72 +418,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="57.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="59.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1"/>
-      <c r="E1"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4"/>
+      <c r="D4" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/keywords/keywords.xlsx
+++ b/keywords/keywords.xlsx
@@ -4,41 +4,87 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="登录"/>
+    <sheet r:id="rId2" sheetId="2" name="创建用户数据"/>
+    <sheet r:id="rId3" sheetId="3" name="删除用户"/>
+    <sheet r:id="rId4" sheetId="4" name="添加用户"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>传参</t>
   </si>
   <si>
     <t>返回值</t>
+  </si>
+  <si>
+    <t>name=testtt
+password="12345678"
+**kwargs</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>提取</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>userinfo={{创建用户数据}}</t>
+  </si>
+  <si>
+    <t>name={{name}}
+password={{password}}
+**kwargs</t>
+  </si>
+  <si>
+    <t>add_user</t>
+  </si>
+  <si>
+    <t>{"userInfo": {{userinfo}}}</t>
+  </si>
+  <si>
+    <t>name=testtt</t>
+  </si>
+  <si>
+    <t>uid=user_list</t>
+  </si>
+  <si>
+    <t>{"condition": "{{name}}"}</t>
+  </si>
+  <si>
+    <t>$..userInfo.id</t>
+  </si>
+  <si>
+    <t>del_user</t>
+  </si>
+  <si>
+    <t>{"ids": {{uid}}}</t>
+  </si>
+  <si>
+    <t>userinfo</t>
+  </si>
+  <si>
+    <t>userinfo=</t>
+  </si>
+  <si>
+    <t>{"name": "{{name}}", "password": {{password}},"nickName": "","departmentId": "2","isPublicAccount": False,"isDynamicAuth": False, "accountIdleType": 1, "accountIdleTime": 1, "maxIdleLimitDay": 0,"accountEffectType": 1, "accountEffectTime": 1, "accountEffectStartTime": "","accountEffectEndTime": "","state": 0,"phone": "", "inheritModes": [0, 2],"authType": 1,"authMode": 0, "isSmAuth": False,"mainAuthModes": [],"enhanceAuthModes": [],"userClientEffectType": 1, "userClientType": 0, "remarks": "", **kwargs}</t>
   </si>
   <si>
     <t>name=admin
 password=admin@123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>提取</t>
-  </si>
-  <si>
-    <t>断言</t>
   </si>
   <si>
     <t>admin_login</t>
@@ -52,13 +98,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -94,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -105,20 +157,14 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,14 +470,78 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="59.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="59.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -444,41 +554,189 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="41.25" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="267.75" customFormat="1" s="1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="49.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="48.75" customFormat="1" s="1">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keywords/keywords.xlsx
+++ b/keywords/keywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="登录"/>
@@ -26,7 +26,7 @@
   </si>
   <si>
     <t>name=testtt
-password="12345678"
+password=12345678
 **kwargs</t>
   </si>
   <si>
@@ -80,7 +80,7 @@
     <t>userinfo=</t>
   </si>
   <si>
-    <t>{"name": "{{name}}", "password": {{password}},"nickName": "","departmentId": "2","isPublicAccount": False,"isDynamicAuth": False, "accountIdleType": 1, "accountIdleTime": 1, "maxIdleLimitDay": 0,"accountEffectType": 1, "accountEffectTime": 1, "accountEffectStartTime": "","accountEffectEndTime": "","state": 0,"phone": "", "inheritModes": [0, 2],"authType": 1,"authMode": 0, "isSmAuth": False,"mainAuthModes": [],"enhanceAuthModes": [],"userClientEffectType": 1, "userClientType": 0, "remarks": "", **kwargs}</t>
+    <t>{"name":"{{name}}", "password": "{{password}}","nickName": "","departmentId": "2","isPublicAccount": False,"isDynamicAuth": False, "accountIdleType": 1, "accountIdleTime": 1, "maxIdleLimitDay": 0,"accountEffectType": 1, "accountEffectTime": 1, "accountEffectStartTime": "","accountEffectEndTime": "","state": 0,"phone": "", "inheritModes": [0, 2],"authType": 1,"authMode": 0, "isSmAuth": False,"mainAuthModes": [],"enhanceAuthModes": [],"userClientEffectType": 1, "userClientType": 0, "remarks": "", **kwargs}</t>
   </si>
   <si>
     <t>name=admin
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,12 +109,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -146,22 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -474,10 +459,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="59.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="59.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="19.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
@@ -487,16 +472,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
@@ -505,10 +490,10 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -519,8 +504,8 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -534,59 +519,59 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="41.25" customFormat="1" s="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="267.75" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="411" customFormat="1" s="1">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,14 +585,14 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
@@ -617,16 +602,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
@@ -635,34 +620,34 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,10 +665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="49.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="49.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -693,16 +678,16 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
@@ -711,32 +696,32 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="48.75" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/keywords/keywords.xlsx
+++ b/keywords/keywords.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\keywords\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AEAB14-37C4-46BB-B6CA-7F8A62ABE8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="登录"/>
-    <sheet r:id="rId2" sheetId="2" name="创建用户数据"/>
-    <sheet r:id="rId3" sheetId="3" name="删除用户"/>
-    <sheet r:id="rId4" sheetId="4" name="添加用户"/>
+    <sheet name="登录" sheetId="1" r:id="rId1"/>
+    <sheet name="创建用户数据" sheetId="2" r:id="rId2"/>
+    <sheet name="删除用户" sheetId="3" r:id="rId3"/>
+    <sheet name="添加用户" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>传参</t>
   </si>
@@ -62,9 +68,6 @@
     <t>uid=user_list</t>
   </si>
   <si>
-    <t>{"condition": "{{name}}"}</t>
-  </si>
-  <si>
     <t>$..userInfo.id</t>
   </si>
   <si>
@@ -80,29 +83,41 @@
     <t>userinfo=</t>
   </si>
   <si>
-    <t>{"name":"{{name}}", "password": "{{password}}","nickName": "","departmentId": "2","isPublicAccount": False,"isDynamicAuth": False, "accountIdleType": 1, "accountIdleTime": 1, "maxIdleLimitDay": 0,"accountEffectType": 1, "accountEffectTime": 1, "accountEffectStartTime": "","accountEffectEndTime": "","state": 0,"phone": "", "inheritModes": [0, 2],"authType": 1,"authMode": 0, "isSmAuth": False,"mainAuthModes": [],"enhanceAuthModes": [],"userClientEffectType": 1, "userClientType": 0, "remarks": "", **kwargs}</t>
+    <t>admin_login</t>
+  </si>
+  <si>
+    <t>{"name": "{{name}}", "password": "{{password}}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name=admin
-password=admin@123</t>
-  </si>
-  <si>
-    <t>admin_login</t>
-  </si>
-  <si>
-    <t>{"admin": "{{name}}", "password": "{{password}}"}</t>
+password=123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"filter": "{{name}}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"{{name}}", "password": "{{password}}", **kwargs}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=testtt
+password=12345678
+**kwargs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,6 +126,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,25 +163,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,10 +195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -211,71 +236,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -303,7 +328,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -326,11 +351,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -339,13 +364,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -355,7 +380,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -364,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -373,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,10 +406,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -449,23 +474,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="3" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="59.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +502,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -483,7 +510,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -497,39 +524,41 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="3" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,17 +568,17 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5" customFormat="1" s="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -563,39 +592,42 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="411" customFormat="1" s="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="3" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +637,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -613,7 +645,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -627,51 +659,53 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="3" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="49.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="29.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +715,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -689,7 +723,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -703,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="48.75" customFormat="1" s="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,7 +747,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -724,6 +758,7 @@
       <c r="D5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/keywords/keywords.xlsx
+++ b/keywords/keywords.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jxb-api\keywords\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AEAB14-37C4-46BB-B6CA-7F8A62ABE8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21150" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -18,17 +12,55 @@
     <sheet name="删除用户" sheetId="3" r:id="rId3"/>
     <sheet name="添加用户" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>传参</t>
   </si>
   <si>
     <t>返回值</t>
+  </si>
+  <si>
+    <t>name=admin
+password=123</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>提取</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>请求头</t>
+  </si>
+  <si>
+    <t>admin_login</t>
+  </si>
+  <si>
+    <t>{"name": "{{name}}", "password": "{{password}}"}</t>
   </si>
   <si>
     <t>name=testtt
@@ -36,16 +68,31 @@
 **kwargs</t>
   </si>
   <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>提取</t>
-  </si>
-  <si>
-    <t>断言</t>
+    <t>userinfo</t>
+  </si>
+  <si>
+    <t>userinfo=</t>
+  </si>
+  <si>
+    <t>{"name":"{{name}}", "password": "{{password}}", **kwargs}</t>
+  </si>
+  <si>
+    <t>name=testtt</t>
+  </si>
+  <si>
+    <t>uid=user_list</t>
+  </si>
+  <si>
+    <t>{"filter": "{{name}}"}</t>
+  </si>
+  <si>
+    <t>$..userInfo.id</t>
+  </si>
+  <si>
+    <t>del_user</t>
+  </si>
+  <si>
+    <t>{"ids": {{uid}}}</t>
   </si>
   <si>
     <t>userinfo={{创建用户数据}}</t>
@@ -60,90 +107,379 @@
   </si>
   <si>
     <t>{"userInfo": {{userinfo}}}</t>
-  </si>
-  <si>
-    <t>name=testtt</t>
-  </si>
-  <si>
-    <t>uid=user_list</t>
-  </si>
-  <si>
-    <t>$..userInfo.id</t>
-  </si>
-  <si>
-    <t>del_user</t>
-  </si>
-  <si>
-    <t>{"ids": {{uid}}}</t>
-  </si>
-  <si>
-    <t>userinfo</t>
-  </si>
-  <si>
-    <t>userinfo=</t>
-  </si>
-  <si>
-    <t>admin_login</t>
-  </si>
-  <si>
-    <t>{"name": "{{name}}", "password": "{{password}}"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=admin
-password=123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"filter": "{{name}}"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"{{name}}", "password": "{{password}}", **kwargs}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=testtt
-password=12345678
-**kwargs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,39 +488,318 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,79 +1084,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -551,65 +1168,65 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="46.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -619,76 +1236,76 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -698,67 +1315,67 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="40.5" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="4" s="1" customFormat="1" ht="48.75" customHeight="1" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>